--- a/resORlinear.xlsx
+++ b/resORlinear.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tasneem/Desktop/TasnimPhD/DoseResponseNMA/DoseResponseNMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4E923FB7-4E33-3542-848A-51B0B0BE1E47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9A25DBCE-B626-F04E-9248-385CAEB8C852}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="28040" windowHeight="16420"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="28040" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="resORlinear" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>beta.pooled</t>
   </si>
@@ -64,9 +64,6 @@
     <t>𝝉</t>
   </si>
   <si>
-    <t>Relative Bias 𝜷1</t>
-  </si>
-  <si>
     <t>Bayesian Normal</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Simulated data parameters </t>
+  </si>
+  <si>
+    <t>Relative Bias  𝜷</t>
   </si>
 </sst>
 </file>
@@ -560,9 +560,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,6 +577,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:M29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,6 +954,7 @@
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1395,233 +1406,428 @@
       </c>
     </row>
     <row r="18" spans="9:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="9:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="I19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="9:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="I19" s="3" t="s">
+      <c r="L19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I21" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="K21" s="8">
+        <f>ABS(I4/B4)</f>
+        <v>0.22695981789556449</v>
+      </c>
+      <c r="L21" s="6">
+        <f>ABS(J4/B4)</f>
+        <v>0.1231319663059645</v>
+      </c>
+      <c r="M21" s="8">
+        <f>ABS(K4/B4)</f>
+        <v>0.24014758362969701</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I22" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="K22" s="6">
+        <f>ABS(I5/B5)</f>
+        <v>7.4396830478090661E-2</v>
+      </c>
+      <c r="L22" s="6">
+        <f>ABS(J5/B5)</f>
+        <v>1.5716277234554533E-2</v>
+      </c>
+      <c r="M22" s="6">
+        <f>ABS(K5/B5)</f>
+        <v>8.3446136391204004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I23" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="K23" s="6">
+        <f>ABS(I3/B3)</f>
+        <v>6.9228057837812995E-2</v>
+      </c>
+      <c r="L23" s="6">
+        <f>ABS(J3/B3)</f>
+        <v>3.0473190323077798E-2</v>
+      </c>
+      <c r="M23" s="6">
+        <f>ABS(K3/B3)</f>
+        <v>7.1794526945359594E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="K24" s="6">
+        <f>ABS(I6/B6)</f>
+        <v>2.9884013289357947E-3</v>
+      </c>
+      <c r="L24" s="6">
+        <f>ABS(J6/B6)</f>
+        <v>1.0743414581482198E-3</v>
+      </c>
+      <c r="M24" s="6">
+        <f>ABS(K6/B6)</f>
+        <v>3.7894928805833048E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I26" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="K26" s="6">
+        <f>ABS(I9/B9)</f>
+        <v>0.10829364725265299</v>
+      </c>
+      <c r="L26" s="6">
+        <f>ABS(J9/B9)</f>
+        <v>1.04769465954481E-2</v>
+      </c>
+      <c r="M26" s="6">
+        <f>ABS(K9/B9)</f>
+        <v>0.120802043468721</v>
+      </c>
+    </row>
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I27" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K27" s="6">
+        <f>ABS(I10/B10)</f>
+        <v>7.6010887740880675E-2</v>
+      </c>
+      <c r="L27" s="6">
+        <f>ABS(J10/B10)</f>
+        <v>4.9107288922780002E-3</v>
+      </c>
+      <c r="M27" s="6">
+        <f>ABS(K10/B10)</f>
+        <v>8.2954896258833011E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I28" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="K28" s="6">
+        <f>ABS(I8/B8)</f>
+        <v>4.0444860155654599E-2</v>
+      </c>
+      <c r="L28" s="6">
+        <f>ABS(J8/B8)</f>
+        <v>9.0267041550746996E-3</v>
+      </c>
+      <c r="M28" s="6">
+        <f>ABS(K8/B8)</f>
+        <v>4.5705027356390995E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I29" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="K29" s="6">
+        <f>ABS(I11/B11)</f>
+        <v>1.1469397895825649E-2</v>
+      </c>
+      <c r="L29" s="6">
+        <f>ABS(J11/B11)</f>
+        <v>7.2672461619301002E-3</v>
+      </c>
+      <c r="M29" s="6">
+        <f>ABS(K11/B11)</f>
+        <v>1.2453061852889798E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>0.05</v>
+      </c>
+      <c r="J33">
+        <v>1E-3</v>
+      </c>
+      <c r="K33" s="2">
+        <v>6.9228057837812995E-2</v>
+      </c>
+      <c r="L33" s="2">
+        <v>3.0473190323077798E-2</v>
+      </c>
+      <c r="M33" s="2">
+        <v>7.1794526945359594E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="9:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="I39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I40" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="J40" s="9">
         <v>1E-3</v>
       </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I21" s="4">
+      <c r="K40" s="8">
+        <v>0.22695981789556449</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0.1231319663059645</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0.24014758362969701</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I41" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="J41" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="K41" s="10">
+        <v>7.4396830478090661E-2</v>
+      </c>
+      <c r="L41" s="10">
+        <v>1.5716277234554533E-2</v>
+      </c>
+      <c r="M41" s="10">
+        <v>8.3446136391204004E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I42" s="9">
         <v>0.05</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J42" s="9">
         <v>1E-3</v>
       </c>
-      <c r="K21" s="5">
-        <f>I3/B3</f>
-        <v>-6.9228057837812995E-2</v>
-      </c>
-      <c r="L21" s="5">
-        <f>J3/B3</f>
-        <v>-3.0473190323077798E-2</v>
-      </c>
-      <c r="M21" s="5">
-        <f>K3/B3</f>
-        <v>-7.1794526945359594E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I22" s="4">
+      <c r="K42" s="10">
+        <v>6.9228057837812995E-2</v>
+      </c>
+      <c r="L42" s="10">
+        <v>3.0473190323077798E-2</v>
+      </c>
+      <c r="M42" s="10">
+        <v>7.1794526945359594E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I43" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J43" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="K43" s="10">
+        <v>2.9884013289357947E-3</v>
+      </c>
+      <c r="L43" s="10">
+        <v>1.0743414581482198E-3</v>
+      </c>
+      <c r="M43" s="10">
+        <v>3.7894928805833048E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I44" s="9">
         <v>0.02</v>
       </c>
-      <c r="J22" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="K22" s="5">
-        <f>I4/B4</f>
-        <v>-0.22695981789556449</v>
-      </c>
-      <c r="L22" s="5">
-        <f>J4/B4</f>
-        <v>-0.1231319663059645</v>
-      </c>
-      <c r="M22" s="5">
-        <f>K4/B4</f>
-        <v>-0.24014758362969701</v>
-      </c>
-    </row>
-    <row r="23" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I23" s="4">
+      <c r="J44" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="K44" s="10">
+        <v>0.10829364725265299</v>
+      </c>
+      <c r="L44" s="10">
+        <v>1.04769465954481E-2</v>
+      </c>
+      <c r="M44" s="10">
+        <v>0.120802043468721</v>
+      </c>
+    </row>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I45" s="9">
         <v>0.03</v>
       </c>
-      <c r="J23" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="K23" s="5">
-        <f>I5/B5</f>
-        <v>-7.4396830478090661E-2</v>
-      </c>
-      <c r="L23" s="5">
-        <f>J5/B5</f>
-        <v>-1.5716277234554533E-2</v>
-      </c>
-      <c r="M23" s="5">
-        <f>K5/B5</f>
-        <v>-8.3446136391204004E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I24" s="4">
+      <c r="J45" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K45" s="10">
+        <v>7.6010887740880675E-2</v>
+      </c>
+      <c r="L45" s="10">
+        <v>4.9107288922780002E-3</v>
+      </c>
+      <c r="M45" s="10">
+        <v>8.2954896258833011E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I46" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="K46" s="10">
+        <v>4.0444860155654599E-2</v>
+      </c>
+      <c r="L46" s="10">
+        <v>9.0267041550746996E-3</v>
+      </c>
+      <c r="M46" s="10">
+        <v>4.5705027356390995E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I47" s="9">
         <v>0.2</v>
       </c>
-      <c r="J24" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="K24" s="5">
-        <f>I6/B6</f>
-        <v>-2.9884013289357947E-3</v>
-      </c>
-      <c r="L24" s="5">
-        <f>J6/B6</f>
-        <v>1.0743414581482198E-3</v>
-      </c>
-      <c r="M24" s="5">
-        <f>K6/B6</f>
-        <v>-3.7894928805833048E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="J47" s="9">
         <v>0.01</v>
       </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I26" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K26" s="5">
-        <f>I8/B8</f>
-        <v>-4.0444860155654599E-2</v>
-      </c>
-      <c r="L26" s="5">
-        <f>J8/B8</f>
-        <v>-9.0267041550746996E-3</v>
-      </c>
-      <c r="M26" s="5">
-        <f>K8/B8</f>
-        <v>-4.5705027356390995E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I27" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K27" s="5">
-        <f>I9/B9</f>
-        <v>-0.10829364725265299</v>
-      </c>
-      <c r="L27" s="5">
-        <f>J9/B9</f>
-        <v>1.04769465954481E-2</v>
-      </c>
-      <c r="M27" s="5">
-        <f>K9/B9</f>
-        <v>-0.120802043468721</v>
-      </c>
-    </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I28" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="K28" s="5">
-        <f>I10/B10</f>
-        <v>-7.6010887740880675E-2</v>
-      </c>
-      <c r="L28" s="5">
-        <f>J10/B10</f>
-        <v>-4.9107288922780002E-3</v>
-      </c>
-      <c r="M28" s="5">
-        <f>K10/B10</f>
-        <v>-8.2954896258833011E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I29" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K29" s="5">
-        <f>I11/B11</f>
-        <v>-1.1469397895825649E-2</v>
-      </c>
-      <c r="L29" s="5">
-        <f>J11/B11</f>
-        <v>-7.2672461619301002E-3</v>
-      </c>
-      <c r="M29" s="5">
-        <f>K11/B11</f>
-        <v>-1.2453061852889798E-2</v>
+      <c r="K47" s="10">
+        <v>1.1469397895825649E-2</v>
+      </c>
+      <c r="L47" s="10">
+        <v>7.2672461619301002E-3</v>
+      </c>
+      <c r="M47" s="10">
+        <v>1.2453061852889798E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:M38"/>
   </mergeCells>
   <conditionalFormatting sqref="K20:M29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:M47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
